--- a/Saved_file/EM002/2026_11/sap_data.xlsx
+++ b/Saved_file/EM002/2026_11/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST8623</t>
+          <t>CUST5440</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19423352</v>
+        <v>10489356</v>
       </c>
       <c r="E2" t="n">
-        <v>2643349</v>
+        <v>1327764</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -551,24 +551,24 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST8623</t>
+          <t>CUST9696</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9491077</v>
+        <v>22081607</v>
       </c>
       <c r="E3" t="n">
-        <v>1632003</v>
+        <v>3207064</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST1432</t>
+          <t>CUST8374</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19798806</v>
+        <v>20193504</v>
       </c>
       <c r="E4" t="n">
-        <v>3113544</v>
+        <v>2050884</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST9651</t>
+          <t>CUST9770</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18866142</v>
+        <v>19371267</v>
       </c>
       <c r="E5" t="n">
-        <v>2801728</v>
+        <v>2460324</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7156</t>
+          <t>CUST4817</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14291136</v>
+        <v>21026501</v>
       </c>
       <c r="E6" t="n">
-        <v>2845260</v>
+        <v>2660143</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1432</t>
+          <t>CUST9768</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19685663</v>
+        <v>24093934</v>
       </c>
       <c r="E7" t="n">
-        <v>2373376</v>
+        <v>3445406</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4346</t>
+          <t>CUST9341</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8660691</v>
+        <v>15501571</v>
       </c>
       <c r="E8" t="n">
-        <v>1584605</v>
+        <v>1821467</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST6146</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12523952</v>
+        <v>19420467</v>
       </c>
       <c r="E9" t="n">
-        <v>2159818</v>
+        <v>3620202</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6799</t>
+          <t>CUST6493</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24424432</v>
+        <v>16349419</v>
       </c>
       <c r="E10" t="n">
-        <v>3464252</v>
+        <v>1948924</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST5591</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21852498</v>
+        <v>17698226</v>
       </c>
       <c r="E11" t="n">
-        <v>2346349</v>
+        <v>2689582</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST2285</t>
+          <t>CUST3438</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19933867</v>
+        <v>9118187</v>
       </c>
       <c r="E12" t="n">
-        <v>3168249</v>
+        <v>1111905</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-11-01</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST2911</t>
+          <t>CUST9061</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13056543</v>
+        <v>16245631</v>
       </c>
       <c r="E13" t="n">
-        <v>1341848</v>
+        <v>3199770</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST1767</t>
+          <t>CUST6814</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14489563</v>
+        <v>24352702</v>
       </c>
       <c r="E14" t="n">
-        <v>2598519</v>
+        <v>4588241</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST4346</t>
+          <t>CUST9061</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24399602</v>
+        <v>21280996</v>
       </c>
       <c r="E15" t="n">
-        <v>3609684</v>
+        <v>2455235</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST8348</t>
+          <t>CUST5901</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18353195</v>
+        <v>11902212</v>
       </c>
       <c r="E16" t="n">
-        <v>2242172</v>
+        <v>2372798</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST5146</t>
+          <t>CUST7840</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11885792</v>
+        <v>10072847</v>
       </c>
       <c r="E17" t="n">
-        <v>2101010</v>
+        <v>1935091</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST5146</t>
+          <t>CUST8156</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8941025</v>
+        <v>12443639</v>
       </c>
       <c r="E18" t="n">
-        <v>1590314</v>
+        <v>2009290</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-11-18</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5146</t>
+          <t>CUST6493</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17998822</v>
+        <v>20474038</v>
       </c>
       <c r="E19" t="n">
-        <v>2803153</v>
+        <v>2192734</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST2167</t>
+          <t>CUST9768</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12201918</v>
+        <v>18275381</v>
       </c>
       <c r="E20" t="n">
-        <v>2302588</v>
+        <v>3568581</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST4346</t>
+          <t>CUST9768</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18045441</v>
+        <v>16766288</v>
       </c>
       <c r="E21" t="n">
-        <v>2596697</v>
+        <v>2369231</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST1346</t>
+          <t>CUST5901</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22454595</v>
+        <v>23479286</v>
       </c>
       <c r="E22" t="n">
-        <v>2775717</v>
+        <v>2468704</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST6370</t>
+          <t>CUST5261</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9478211</v>
+        <v>17727882</v>
       </c>
       <c r="E23" t="n">
-        <v>1175437</v>
+        <v>3045765</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST2167</t>
+          <t>CUST9991</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24406072</v>
+        <v>24840464</v>
       </c>
       <c r="E24" t="n">
-        <v>4252550</v>
+        <v>3465350</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-11-16</t>
+          <t>2026-11-22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST1346</t>
+          <t>CUST9905</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10595015</v>
+        <v>21899908</v>
       </c>
       <c r="E25" t="n">
-        <v>1339029</v>
+        <v>3187787</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-04</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1432</t>
+          <t>CUST4965</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17090542</v>
+        <v>11909734</v>
       </c>
       <c r="E26" t="n">
-        <v>3182734</v>
+        <v>1679101</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-11-14</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8164</t>
+          <t>CUST9793</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10332704</v>
+        <v>14913237</v>
       </c>
       <c r="E27" t="n">
-        <v>1346761</v>
+        <v>1866065</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-11-19</t>
+          <t>2026-11-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST6370</t>
+          <t>CUST2992</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16997172</v>
+        <v>22874399</v>
       </c>
       <c r="E28" t="n">
-        <v>2429364</v>
+        <v>4230674</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST5193</t>
+          <t>CUST7491</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23155591</v>
+        <v>8773398</v>
       </c>
       <c r="E29" t="n">
-        <v>3929885</v>
+        <v>1633797</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-11-15</t>
+          <t>2026-11-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST7944</t>
+          <t>CUST5591</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>16857710</v>
+        <v>9790561</v>
       </c>
       <c r="E30" t="n">
-        <v>2216217</v>
+        <v>1762603</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST7866</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23169922</v>
+        <v>20886297</v>
       </c>
       <c r="E31" t="n">
-        <v>2625625</v>
+        <v>2777671</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2117,24 +2117,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6799</t>
+          <t>CUST6349</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>24750330</v>
+        <v>22614137</v>
       </c>
       <c r="E32" t="n">
-        <v>3192928</v>
+        <v>4162908</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST3515</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>17485822</v>
+        <v>14755478</v>
       </c>
       <c r="E33" t="n">
-        <v>2269373</v>
+        <v>1586874</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-11-13</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST2807</t>
+          <t>CUST7840</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24787476</v>
+        <v>11741817</v>
       </c>
       <c r="E34" t="n">
-        <v>3724161</v>
+        <v>2184002</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST9050</t>
+          <t>CUST5647</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17148192</v>
+        <v>19014590</v>
       </c>
       <c r="E35" t="n">
-        <v>2518219</v>
+        <v>2404948</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2333,20 +2333,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST1582</t>
+          <t>CUST3057</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22165101</v>
+        <v>21538149</v>
       </c>
       <c r="E36" t="n">
-        <v>2400236</v>
+        <v>3193901</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST9991</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8527839</v>
+        <v>24289049</v>
       </c>
       <c r="E37" t="n">
-        <v>1269345</v>
+        <v>2991396</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST9396</t>
+          <t>CUST9341</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24744255</v>
+        <v>20577991</v>
       </c>
       <c r="E38" t="n">
-        <v>4586210</v>
+        <v>2404044</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6799</t>
+          <t>CUST9696</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17850838</v>
+        <v>16371950</v>
       </c>
       <c r="E39" t="n">
-        <v>3472209</v>
+        <v>1965968</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-21</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST1582</t>
+          <t>CUST3438</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13621390</v>
+        <v>9852072</v>
       </c>
       <c r="E40" t="n">
-        <v>2594127</v>
+        <v>1449925</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST5406</t>
+          <t>CUST5901</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>23697976</v>
+        <v>18421349</v>
       </c>
       <c r="E41" t="n">
-        <v>2816917</v>
+        <v>1911107</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-11-09</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6442</t>
+          <t>CUST9793</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>17703392</v>
+        <v>18146136</v>
       </c>
       <c r="E42" t="n">
-        <v>2730405</v>
+        <v>1981873</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-11-22</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST1938</t>
+          <t>CUST9355</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23577745</v>
+        <v>9578003</v>
       </c>
       <c r="E43" t="n">
-        <v>4567409</v>
+        <v>1135293</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2285</t>
+          <t>CUST2086</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15575141</v>
+        <v>14672605</v>
       </c>
       <c r="E44" t="n">
-        <v>2455158</v>
+        <v>2463524</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7063</t>
+          <t>CUST9696</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11109269</v>
+        <v>23997899</v>
       </c>
       <c r="E45" t="n">
-        <v>1788895</v>
+        <v>4218855</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-11-07</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST2133</t>
+          <t>CUST8374</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12317278</v>
+        <v>11729091</v>
       </c>
       <c r="E46" t="n">
-        <v>2454484</v>
+        <v>1453817</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-11-12</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST5873</t>
+          <t>CUST2992</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16170866</v>
+        <v>11927666</v>
       </c>
       <c r="E47" t="n">
-        <v>1811778</v>
+        <v>1865566</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-19</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST2285</t>
+          <t>CUST3515</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19451769</v>
+        <v>23836603</v>
       </c>
       <c r="E48" t="n">
-        <v>2255210</v>
+        <v>3563165</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-11-29</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST9172</t>
+          <t>CUST4959</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12145676</v>
+        <v>14624329</v>
       </c>
       <c r="E49" t="n">
-        <v>1700297</v>
+        <v>2215222</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-11-24</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST9050</t>
+          <t>CUST6146</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12139670</v>
+        <v>19541572</v>
       </c>
       <c r="E50" t="n">
-        <v>2332528</v>
+        <v>2138746</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST2285</t>
+          <t>CUST1491</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>12485384</v>
+        <v>17910272</v>
       </c>
       <c r="E51" t="n">
-        <v>1526158</v>
+        <v>2470404</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-11-26</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST9008</t>
+          <t>CUST5812</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21386030</v>
+        <v>24799744</v>
       </c>
       <c r="E52" t="n">
-        <v>2557204</v>
+        <v>3781077</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-11-25</t>
+          <t>2026-11-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7291</t>
+          <t>CUST9060</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>23058498</v>
+        <v>13542255</v>
       </c>
       <c r="E53" t="n">
-        <v>3422065</v>
+        <v>2541168</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-11-27</t>
+          <t>2026-11-08</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1938</t>
+          <t>CUST4611</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17027736</v>
+        <v>9370962</v>
       </c>
       <c r="E54" t="n">
-        <v>2583615</v>
+        <v>1671271</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-11-20</t>
+          <t>2026-11-05</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST2374</t>
+          <t>CUST2650</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>19810358</v>
+        <v>19427254</v>
       </c>
       <c r="E55" t="n">
-        <v>3600281</v>
+        <v>2440255</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-25</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9953</t>
+          <t>CUST9696</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>21059302</v>
+        <v>12032910</v>
       </c>
       <c r="E56" t="n">
-        <v>3497574</v>
+        <v>2111170</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST9851</t>
+          <t>CUST6102</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>14787336</v>
+        <v>21933247</v>
       </c>
       <c r="E57" t="n">
-        <v>1943903</v>
+        <v>2229436</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-11-21</t>
+          <t>2026-11-10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST1582</t>
+          <t>CUST3515</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>15167156</v>
+        <v>11331637</v>
       </c>
       <c r="E58" t="n">
-        <v>2891545</v>
+        <v>1824381</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-11-11</t>
+          <t>2026-11-12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9650</t>
+          <t>CUST8503</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12622054</v>
+        <v>21730041</v>
       </c>
       <c r="E59" t="n">
-        <v>1785424</v>
+        <v>3272744</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-11-30</t>
+          <t>2026-11-17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST6442</t>
+          <t>CUST7283</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16535089</v>
+        <v>20162379</v>
       </c>
       <c r="E60" t="n">
-        <v>3132801</v>
+        <v>3517759</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,25 +3678,25 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-11-06</t>
+          <t>2026-11-14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST4811</t>
+          <t>CUST6349</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>20694598</v>
+        <v>22632193</v>
       </c>
       <c r="E61" t="n">
-        <v>2735392</v>
+        <v>2628124</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.8</v>
+        <v>66.7</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>7883726</v>
+        <v>9262452</v>
       </c>
       <c r="E3" t="n">
-        <v>1879978</v>
+        <v>2215792</v>
       </c>
     </row>
     <row r="4">
@@ -3815,16 +3815,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.5</v>
+        <v>62.9</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3427962</v>
+        <v>1688017</v>
       </c>
       <c r="E4" t="n">
-        <v>894677</v>
+        <v>325129</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4446378</v>
+        <v>6375751</v>
       </c>
       <c r="E5" t="n">
-        <v>518219</v>
+        <v>1345251</v>
       </c>
     </row>
     <row r="6">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.7</v>
+        <v>78.5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>19859784</v>
+        <v>5067614</v>
       </c>
       <c r="E6" t="n">
-        <v>5123513</v>
+        <v>1386248</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.7</v>
+        <v>78.5</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>8035056</v>
+        <v>9982300</v>
       </c>
       <c r="E7" t="n">
-        <v>1699403</v>
+        <v>2044742</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3894339</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>468326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>11596632</v>
+        <v>6759054</v>
       </c>
       <c r="E10" t="n">
-        <v>2964062</v>
+        <v>1556136</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>15060350</v>
+        <v>6873149</v>
       </c>
       <c r="E11" t="n">
-        <v>1834045</v>
+        <v>694414</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.1</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>4735866</v>
+        <v>8583001</v>
       </c>
       <c r="E12" t="n">
-        <v>1148126</v>
+        <v>1911045</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>9708184</v>
+        <v>10295396</v>
       </c>
       <c r="E13" t="n">
-        <v>1846795</v>
+        <v>2468320</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79</v>
+        <v>64.2</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>13343299</v>
+        <v>3169689</v>
       </c>
       <c r="E14" t="n">
-        <v>2707443</v>
+        <v>435852</v>
       </c>
     </row>
     <row r="15">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2333633</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>560288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4313493</v>
+        <v>11057143</v>
       </c>
       <c r="E17" t="n">
-        <v>573564</v>
+        <v>2572434</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>7201362</v>
+        <v>7063476</v>
       </c>
       <c r="E18" t="n">
-        <v>831010</v>
+        <v>1822376</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.2</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2423126</v>
+        <v>4740036</v>
       </c>
       <c r="E19" t="n">
-        <v>280974</v>
+        <v>994597</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>9666016</v>
+        <v>7790076</v>
       </c>
       <c r="E20" t="n">
-        <v>1400889</v>
+        <v>2189799</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4899068</v>
+        <v>6661909</v>
       </c>
       <c r="E21" t="n">
-        <v>949279</v>
+        <v>1395687</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9087913</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2694440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>71.3</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1958785</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>292113</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.2</v>
+        <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>9615644</v>
+        <v>7714616</v>
       </c>
       <c r="E24" t="n">
-        <v>1218978</v>
+        <v>1047637</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.7</v>
+        <v>61.9</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>9909597</v>
+        <v>5762933</v>
       </c>
       <c r="E25" t="n">
-        <v>2229592</v>
+        <v>1017002</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65</v>
+        <v>72.7</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4200587</v>
+        <v>3255530</v>
       </c>
       <c r="E26" t="n">
-        <v>945452</v>
+        <v>696641</v>
       </c>
     </row>
     <row r="27">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.7</v>
+        <v>65.3</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>4902944</v>
+        <v>7323044</v>
       </c>
       <c r="E27" t="n">
-        <v>1302977</v>
+        <v>920677</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>1578483</v>
+        <v>5203862</v>
       </c>
       <c r="E28" t="n">
-        <v>232241</v>
+        <v>763419</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5875956</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1699998</v>
       </c>
     </row>
     <row r="30">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>13521422</v>
+        <v>1565210</v>
       </c>
       <c r="E31" t="n">
-        <v>3343531</v>
+        <v>355702</v>
       </c>
     </row>
   </sheetData>
